--- a/data/long_dif/P24_3-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_3-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>10,33%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,84%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,8%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>17,27%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 10,31</t>
+          <t>1,93; 11,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,29; 18,76</t>
+          <t>6,39; 29,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 11,3</t>
+          <t>2,0; 11,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 21,47</t>
+          <t>6,19; 24,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 14,33</t>
+          <t>7,55; 40,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,65</t>
+          <t>9,07; 21,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,77</t>
+          <t>2,75; 12,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,29; 13,72</t>
+          <t>2,86; 11,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 9,64</t>
+          <t>4,53; 19,47</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 29,34</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6,61; 14,38</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 18,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 9,58</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 19,03</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>9,35; 28,63</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>81,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>83,65%</t>
+          <t>83,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>76,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82,53%</t>
+          <t>58,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>86,04%</t>
+          <t>79,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>84,51%</t>
+          <t>82,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,4%</t>
+          <t>85,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>84,84%</t>
+          <t>70,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>65,46%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>84,22%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>82,1%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>84,81%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>73,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>61,55%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,31; 93,34</t>
+          <t>81,46; 93,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,03; 91,18</t>
+          <t>66,84; 89,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,7; 90,4</t>
+          <t>74,51; 90,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,23; 86,67</t>
+          <t>62,48; 87,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>73,68; 88,8</t>
+          <t>40,89; 73,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>79,04; 91,44</t>
+          <t>71,88; 86,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,39; 88,63</t>
+          <t>73,82; 88,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,6; 88,35</t>
+          <t>79,44; 91,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>79,6; 89,54</t>
+          <t>59,26; 80,09</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49,55; 77,67</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>78,62; 88,38</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>74,13; 87,6</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>79,34; 88,87</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>64,69; 80,65</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>50,27; 72,03</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>18,99%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>21,17%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 12,12</t>
+          <t>2,66; 12,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 12,61</t>
+          <t>1,17; 10,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 17,86</t>
+          <t>5,27; 18,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 11,17</t>
+          <t>3,89; 22,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 16,87</t>
+          <t>11,39; 38,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 14,62</t>
+          <t>2,39; 10,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,57</t>
+          <t>6,42; 19,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 12,64</t>
+          <t>3,82; 14,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 13,78</t>
+          <t>10,53; 30,35</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10,76; 34,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 9,69</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 12,34</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,99; 14,2</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 23,11</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 31,48</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 8,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 18,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 18,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 15,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 16,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 16,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 14,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 14,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>80,93%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>79,06%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>78,4%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>78,94%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>82,74%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>79,67%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>79,0%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>84,14%</t>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9,66%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11,87%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,35; 88,01</t>
+          <t>1,56; 9,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70,04; 86,47</t>
+          <t>5,67; 17,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,9; 91,08</t>
+          <t>5,72; 17,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69,14; 85,2</t>
+          <t>1,56; 11,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>69,22; 85,93</t>
+          <t>4,96; 26,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>76,0; 88,19</t>
+          <t>5,79; 16,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>72,39; 84,67</t>
+          <t>4,15; 14,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>73,1; 84,62</t>
+          <t>7,67; 17,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,77; 88,39</t>
+          <t>1,38; 7,66</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,06; 18,41</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,45; 11,0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 14,34</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 14,96</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 8,01</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 19,03</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>81,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>85,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>82,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>79,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>78,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>78,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>82,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>82,54%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>77,7%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>79,83%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>79,65%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>83,91%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>82,32%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>78,62%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,85; 26,76</t>
+          <t>71,06; 88,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 16,81</t>
+          <t>71,53; 88,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 9,23</t>
+          <t>77,67; 91,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,61; 19,39</t>
+          <t>72,58; 90,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,25; 20,4</t>
+          <t>63,81; 90,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 9,42</t>
+          <t>71,37; 84,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,52; 20,28</t>
+          <t>70,23; 85,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,14; 15,48</t>
+          <t>76,13; 87,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,66</t>
+          <t>75,1; 88,55</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>68,05; 85,67</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73,07; 84,83</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>73,16; 84,54</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>79,57; 88,66</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>76,22; 87,81</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>69,23; 85,74</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10,78%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>9,51%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,09; 19,06</t>
+          <t>8,21; 25,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,16; 26,21</t>
+          <t>4,8; 15,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,51; 15,28</t>
+          <t>1,65; 8,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,07; 15,56</t>
+          <t>6,81; 21,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 14,07</t>
+          <t>2,1; 20,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,35; 16,04</t>
+          <t>6,84; 17,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,4; 15,04</t>
+          <t>6,54; 19,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,31; 17,92</t>
+          <t>2,99; 9,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,36; 14,18</t>
+          <t>8,56; 20,88</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 19,03</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9,07; 19,91</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 15,62</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 8,04</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>9,24; 19,48</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 15,95</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>73,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>80,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>79,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>81,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>81,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>76,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>78,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>80,85%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>56,5; 81,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>65,79; 82,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>74,39; 85,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>73,88; 84,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>75,49; 85,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>75,98; 85,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>68,48; 81,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>73,15; 83,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>76,94; 84,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>13,8%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>12,68%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>10,93%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>12,66%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,04; 32,03</t>
+          <t>5,53; 16,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,07; 13,35</t>
+          <t>9,94; 27,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,79; 13,67</t>
+          <t>6,38; 14,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,26; 14,03</t>
+          <t>7,2; 17,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,58; 13,23</t>
+          <t>2,35; 11,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,04</t>
+          <t>7,07; 15,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,16; 23,4</t>
+          <t>6,88; 16,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,76; 11,88</t>
+          <t>8,01; 15,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,05; 11,23</t>
+          <t>9,72; 19,54</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 20,86</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 14,03</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 17,77</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>8,2; 14,19</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>9,74; 16,86</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>6,37; 13,51</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>77,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>76,85%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>80,72%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>69,48%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>78,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>80,41%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>81,05%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>71,59%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>74,99%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>78,28%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>78,76%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>80,89%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>70,59%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>73,01%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>6,02; 14,29</t>
+          <t>70,23; 83,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>5,86; 21,11</t>
+          <t>65,84; 83,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,29; 21,23</t>
+          <t>73,89; 85,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,71; 18,61</t>
+          <t>61,45; 77,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,25; 12,59</t>
+          <t>61,58; 79,98</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,8; 16,18</t>
+          <t>72,89; 83,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,84; 15,08</t>
+          <t>74,65; 85,29</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,46; 15,69</t>
+          <t>76,15; 85,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,78; 16,95</t>
+          <t>64,39; 77,74</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>66,8; 82,72</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>73,68; 82,86</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>73,38; 83,55</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>76,86; 84,47</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>65,38; 75,51</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>66,69; 78,55</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>79,77%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>74,02%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>70,62%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>78,19%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>76,12%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>76,61%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>76,11%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>73,44%</t>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>8,18%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>16,76%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>17,51%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>73,41; 84,88</t>
+          <t>7,75; 18,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>64,88; 80,29</t>
+          <t>4,32; 12,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>64,41; 76,63</t>
+          <t>5,84; 14,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>67,81; 79,44</t>
+          <t>12,84; 27,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>72,14; 83,04</t>
+          <t>15,51; 32,99</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>70,55; 80,83</t>
+          <t>6,76; 14,93</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>72,77; 80,45</t>
+          <t>5,47; 13,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>70,21; 80,1</t>
+          <t>4,38; 10,52</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>69,07; 76,95</t>
+          <t>10,2; 21,34</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>6,04; 18,18</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>8,33; 14,51</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>5,99; 11,71</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 10,93</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>12,76; 21,94</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>12,51; 23,04</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2597,164 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>6,99; 15,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>10,6; 21,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>9,37; 19,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,76; 16,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>9,45; 18,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>8,94; 16,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>8,86; 14,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>11,17; 18,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,1; 16,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>12,19%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>9,83%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>13,65%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>11,29%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>17,47%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2767,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,81; 9,82</t>
+          <t>6,56; 15,11</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,19; 14,47</t>
+          <t>6,04; 23,62</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>12,52; 22,95</t>
+          <t>11,64; 21,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,82; 10,69</t>
+          <t>6,96; 17,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,19; 16,55</t>
+          <t>14,36; 37,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,76; 17,81</t>
+          <t>10,26; 19,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,88; 9,03</t>
+          <t>5,46; 12,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,69; 13,81</t>
+          <t>7,99; 15,92</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11,47; 18,78</t>
+          <t>7,11; 15,84</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>6,18; 18,42</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 15,33</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 16,21</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>10,66; 16,99</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>8,2; 14,93</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 25,74</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2845,82 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>79,18%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>75,46%</t>
+          <t>73,73%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>65,41%</t>
+          <t>70,26%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>73,75%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>77,93%</t>
+          <t>57,02%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>66,87%</t>
+          <t>72,98%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>76,65%</t>
+          <t>75,84%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>66,15%</t>
+          <t>72,5%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>60,93%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>75,98%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>75,72%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>73,14%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>73,11%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>58,87%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2933,77 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>77,53; 89,22</t>
+          <t>73,31; 84,28</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>67,88; 82,0</t>
+          <t>63,96; 79,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>57,93; 71,79</t>
+          <t>63,88; 76,53</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>71,65; 85,5</t>
+          <t>66,88; 80,79</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>70,96; 84,38</t>
+          <t>44,34; 67,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>59,24; 73,53</t>
+          <t>66,79; 78,08</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>76,7; 85,57</t>
+          <t>72,11; 83,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>71,11; 81,02</t>
+          <t>69,68; 80,57</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>61,08; 70,96</t>
+          <t>66,24; 78,35</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>49,98; 68,89</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>71,99; 79,94</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>70,05; 79,65</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>69,01; 77,21</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>68,13; 77,29</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>50,73; 65,88</t>
         </is>
       </c>
     </row>
@@ -2127,52 +3011,82 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>16,36%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>27,79%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>11,83%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>13,21%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>15,6%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>23,66%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +3099,160 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>6,27; 16,11</t>
+          <t>7,02; 15,83</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>9,61; 21,96</t>
+          <t>10,89; 21,0</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>12,81; 23,49</t>
+          <t>9,8; 19,31</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>9,52; 21,14</t>
+          <t>10,15; 21,11</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>6,91; 17,06</t>
+          <t>11,87; 29,24</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>15,02; 28,48</t>
+          <t>9,12; 17,36</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>9,35; 16,64</t>
+          <t>9,72; 19,07</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>10,0; 18,63</t>
+          <t>9,49; 17,59</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>15,42; 23,44</t>
+          <t>11,46; 21,66</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>20,62; 37,67</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>8,94; 14,97</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>11,45; 18,43</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>10,45; 16,5</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>12,12; 19,77</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 30,08</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +3265,164 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>6,01; 16,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>5,64; 17,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>12,13; 29,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>6,95; 16,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>12,54; 27,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>9,52; 20,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>7,46; 14,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>11,05; 21,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>12,35; 21,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>75,46%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>76,3%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>65,66%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>65,53%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>58,58%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>69,91%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>65,95%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>64,4%</t>
+          <t>12,89%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>19,27%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>15,07%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +3435,77 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>67,55; 82,52</t>
+          <t>2,83; 10,18</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>67,32; 84,13</t>
+          <t>5,53; 15,77</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>56,37; 74,05</t>
+          <t>12,39; 22,86</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>57,46; 73,3</t>
+          <t>8,47; 20,75</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>49,55; 68,26</t>
+          <t>13,02; 31,84</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>55,24; 71,7</t>
+          <t>2,92; 10,49</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>63,41; 75,55</t>
+          <t>5,86; 17,2</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>58,49; 72,59</t>
+          <t>8,75; 18,2</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>58,6; 70,58</t>
+          <t>7,58; 20,52</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>11,86; 27,3</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 8,55</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>6,93; 13,94</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>11,63; 18,73</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>9,27; 18,18</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 27,19</t>
         </is>
       </c>
     </row>
@@ -2449,52 +3513,82 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>64,76%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>68,09%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>54,49%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>79,38%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>77,31%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>66,16%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>65,61%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>53,64%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>81,26%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>75,83%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>65,47%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>66,83%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>54,06%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3601,160 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>9,2; 21,58</t>
+          <t>77,1; 88,95</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>7,85; 21,03</t>
+          <t>66,81; 81,68</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>9,78; 21,15</t>
+          <t>57,47; 71,56</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>16,63; 31,41</t>
+          <t>59,24; 75,98</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>15,88; 31,12</t>
+          <t>43,12; 64,52</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>15,34; 29,25</t>
+          <t>72,34; 84,57</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>14,78; 25,92</t>
+          <t>69,29; 84,0</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>14,05; 24,59</t>
+          <t>58,64; 72,54</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>14,18; 23,69</t>
+          <t>55,89; 74,27</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>43,83; 63,38</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>77,17; 85,56</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>70,45; 80,28</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>60,52; 69,88</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>60,2; 72,53</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>46,57; 61,29</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>27,09%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>12,89%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>19,46%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>20,24%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>25,58%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3767,77 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,91</t>
+          <t>6,66; 16,31</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>9,18; 14,75</t>
+          <t>10,46; 22,86</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>10,5; 15,52</t>
+          <t>12,88; 24,3</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,13</t>
+          <t>12,56; 26,33</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>8,98; 13,47</t>
+          <t>15,96; 33,97</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>9,73; 13,53</t>
+          <t>9,93; 21,09</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,94</t>
+          <t>7,3; 18,15</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>9,67; 13,25</t>
+          <t>15,39; 28,68</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>10,73; 13,77</t>
+          <t>15,11; 29,75</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>19,42; 36,34</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>9,63; 17,28</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>10,66; 18,66</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>15,74; 24,13</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 25,54</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>19,82; 32,1</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3845,82 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>79,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>77,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>75,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>75,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>75,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>77,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>76,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>75,63%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3933,164 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>75,89; 82,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>73,73; 80,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>72,34; 78,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>72,63; 78,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>72,5; 78,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>73,19; 78,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>75,15; 79,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>73,99; 78,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>73,63; 77,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>12,61%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>10,59%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>15,89%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>16,8%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>10,62%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +4103,1266 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>10,1; 16,63</t>
+          <t>5,78; 16,0</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>9,15; 13,68</t>
+          <t>5,71; 17,51</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>9,5; 13,61</t>
+          <t>11,65; 26,52</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>11,29; 15,87</t>
+          <t>8,5; 24,41</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>10,98; 15,78</t>
+          <t>4,94; 20,41</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>10,82; 14,93</t>
+          <t>7,35; 17,32</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>11,37; 15,33</t>
+          <t>13,07; 29,84</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,17</t>
+          <t>10,76; 22,21</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>10,64; 13,77</t>
+          <t>7,09; 21,17</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 20,84</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>7,67; 14,79</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 22,39</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>12,82; 21,84</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>8,69; 19,18</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>5,87; 18,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>75,26%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>75,52%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>65,51%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>61,0%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>63,67%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>64,63%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>57,77%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>61,7%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>57,58%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>55,11%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>69,31%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>65,23%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>63,34%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>59,06%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>58,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>66,75; 82,23</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>67,37; 83,43</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>56,31; 73,69</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>48,54; 71,86</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>49,98; 74,96</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>56,94; 72,84</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>48,21; 66,13</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>53,56; 69,94</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>46,92; 67,34</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>41,01; 68,87</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>62,39; 74,63</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>58,57; 72,24</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>57,53; 68,67</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>50,7; 66,35</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>49,5; 68,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>14,71%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>24,26%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>25,66%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>23,71%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>22,88%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>22,69%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>29,8%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>34,3%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>19,75%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>18,87%</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>19,87%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>30,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 21,74</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>7,78; 20,77</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>10,89; 22,93</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>14,77; 37,03</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>16,58; 39,26</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 32,63</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>16,51; 31,41</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>16,14; 30,92</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 40,62</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>21,37; 47,79</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>15,32; 26,1</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>14,22; 24,25</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>15,29; 25,32</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>21,21; 35,58</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 40,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>11,87%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>9,65%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>12,33%</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 9,71</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>9,3; 15,2</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>10,83; 15,31</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>8,89; 14,0</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 19,29</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>9,56; 13,52</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>8,97; 13,63</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>10,22; 13,95</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 13,51</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>10,46; 16,83</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 11,12</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>9,85; 13,6</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 13,77</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 12,96</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>11,75; 16,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>80,44%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>77,03%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>75,45%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>72,05%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>64,29%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>75,04%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>74,98%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>75,12%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>69,52%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>64,32%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>77,67%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>75,98%</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>75,28%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>70,76%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>64,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>77,34; 83,1</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>73,53; 80,37</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>72,45; 78,4</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>68,02; 76,18</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>59,39; 69,85</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>71,9; 77,76</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>71,58; 77,95</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>72,44; 77,56</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>65,45; 72,54</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>59,47; 68,99</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>75,37; 79,58</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>73,55; 78,16</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>73,26; 77,22</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>68,02; 73,59</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>61,06; 68,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>20,72%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>19,42%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>22,34%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>12,69%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>12,52%</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="inlineStr">
+        <is>
+          <t>12,38%</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>21,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 14,35</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 13,36</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>9,85; 14,11</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>13,72; 20,43</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>16,76; 25,37</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 16,14</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>11,61; 16,44</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 15,39</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>16,65; 22,87</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>18,4; 26,68</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 14,47</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 14,13</t>
+        </is>
+      </c>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 14,03</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>15,87; 20,51</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>18,45; 24,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_3-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_3-Edad-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1801,7 +1801,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1960,7 +1960,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2282,7 +2282,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2441,7 +2441,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2763,7 +2763,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2922,7 +2922,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -3244,7 +3244,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -3403,7 +3403,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3725,7 +3725,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3884,7 +3884,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
